--- a/medicine/Enfance/Arc-en-ciel_le_plus_beau_poisson_des_océans/Arc-en-ciel_le_plus_beau_poisson_des_océans.xlsx
+++ b/medicine/Enfance/Arc-en-ciel_le_plus_beau_poisson_des_océans/Arc-en-ciel_le_plus_beau_poisson_des_océans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arc-en-ciel est une série de livres pour enfants créés par l'écrivain suisse Marcus Pfister (en) aux Éditions Nord Sud à partir de 1992. En 2000, une série de dessins animés de 26 épisodes a été diffusée à partir des livres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arc-en-ciel était un poisson magnifique avec des écailles argentées, multicolores, . D'autres poissons admiraient Arc-en-ciel. Un petit poisson bleu voulait une de ses écailles, mais Arc-en-ciel refusait et depuis ce jour, aucun poisson ne voulait plus lui parler. Alors, il demanda de l'aide à une étoile de mer et une pieuvre et ils dirent que les autres poissons seraient très heureux s'il donnait ses écailles. Plus tard, le poisson bleu revint et il lui donna une de ses écailles, et après il donna toutes ses écailles aux poissons. Petit à petit, Arc-en-ciel n'avait plus qu'une seule écaille et il était heureux avec ses nouveaux amis.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1992 : Arc-en-ciel, le plus beau poisson des océans  (ISBN 9783314207556)
 1995 : Arc-en-ciel et le petit poisson perdu  (ISBN 9783314209246)
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1992
 Christopher Award, New York
@@ -598,7 +616,7 @@
 1997
 Steirische Leseeule
 2010
-3 Apples Book Award, New York Library Association Nomination[1]</t>
+3 Apples Book Award, New York Library Association Nomination</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,21 +644,95 @@
           <t>Dessin animé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La série télévisée n'a pas suivi le même scénario que les livres et bien que les lieux et les personnages aient étés conservés, ils sont mis en scène dans des histoires différentes. La série a été notamment diffusée à partir de 2000 sur Junior en Allemagne et en France sur France 5 dans l'émission Debout les Zouzous en 2003.
-Voix françaises
-Carole Baillien : Arc-en-ciel
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série télévisée n'a pas suivi le même scénario que les livres et bien que les lieux et les personnages aient étés conservés, ils sont mis en scène dans des histoires différentes. La série a été notamment diffusée à partir de 2000 sur Junior en Allemagne et en France sur France 5 dans l'émission Debout les Zouzous en 2003.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dessin animé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Carole Baillien : Arc-en-ciel
 Jacqueline Ghaye : Aqua, mère d'Arc-en-ciel
 Michel Hinderyckx : Sole, père d'Arc-en-ciel
 Carine Seront : Mlle Sardine (institutrice d'Arc-en-ciel)
 Cécile Florin : Bleu
 Sabrina Leurquin
 Catherine Swartzenbroeck
-Frédéric Meaux
-Liste des épisodes
-Saison 1 (2000)
-La Petite Nouvelle (Rainbow Fish and the New Girl at School)
+Frédéric Meaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dessin animé</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Saison 1 (2000)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Petite Nouvelle (Rainbow Fish and the New Girl at School)
 Le Porte-bonheur (Rainbow Fish Meets Wayne Grunion)
 Arc-en-ciel mélomane (Rainbow Fish Plays the Conch Shell)
 À contre-courant (Riptide)
@@ -665,9 +757,47 @@
 Arc-en-ciel et les Cools-Cools ()
 Les Chevaliers de la table de corail (Knights of the Coral Table)
 La Malédiction ()
-Mon père ce héros (Father's Day)
-Saison 2 (2001)
-L'Ami préhistorique (Prehistoric Pal)
+Mon père ce héros (Father's Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dessin animé</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Saison 2 (2001)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Ami préhistorique (Prehistoric Pal)
 Que le meilleur gagne ! (May the Better Fish Win)
 Bien joué, Bleu ! (Blue's Fishy Catch)
 Apparences trompeuses ()
@@ -696,61 +826,65 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Jeux de société</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1998 : Arc-en-ciel le plus beau poisson des océans</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arc-en-ciel_le_plus_beau_poisson_des_océans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arc-en-ciel_le_plus_beau_poisson_des_oc%C3%A9ans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1999 : Arc-en-Ciel le plus beau poisson des océans
 2000 : Arc-en-Ciel et la baleine
